--- a/data/pca/factorExposure/factorExposure_2018-06-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-06-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01891822986528428</v>
+        <v>-0.02056010532518193</v>
       </c>
       <c r="C2">
-        <v>-0.03040315229947627</v>
+        <v>0.01918049423032898</v>
       </c>
       <c r="D2">
-        <v>0.01021196358094635</v>
+        <v>0.02169744557019887</v>
       </c>
       <c r="E2">
-        <v>0.01077150951566654</v>
+        <v>-0.01517273929948218</v>
       </c>
       <c r="F2">
-        <v>0.1076785022740197</v>
+        <v>0.008436511012175825</v>
       </c>
       <c r="G2">
-        <v>0.06673845340234631</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.04463691001266488</v>
+      </c>
+      <c r="H2">
+        <v>-0.05400528248771294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.09394946225273589</v>
+        <v>-0.07756876545643224</v>
       </c>
       <c r="C3">
-        <v>-0.00827264451200569</v>
+        <v>-0.01113547851901046</v>
       </c>
       <c r="D3">
-        <v>0.07105823640974068</v>
+        <v>0.02819095099126909</v>
       </c>
       <c r="E3">
-        <v>0.02638979963151078</v>
+        <v>-0.005407714931494945</v>
       </c>
       <c r="F3">
-        <v>0.3956607752364693</v>
+        <v>-0.01513505879801676</v>
       </c>
       <c r="G3">
-        <v>0.170883415037613</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.1547301176687759</v>
+      </c>
+      <c r="H3">
+        <v>-0.1684043488575426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.03982322827978674</v>
+        <v>-0.04379692980936643</v>
       </c>
       <c r="C4">
-        <v>-0.01488292778824233</v>
+        <v>0.00604831707583013</v>
       </c>
       <c r="D4">
-        <v>-0.02012747560057297</v>
+        <v>0.04755880285975026</v>
       </c>
       <c r="E4">
-        <v>-0.05199854565083905</v>
+        <v>0.02187713373683732</v>
       </c>
       <c r="F4">
-        <v>0.07992457942542357</v>
+        <v>0.05572603695086515</v>
       </c>
       <c r="G4">
-        <v>0.06098178918002591</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03154894394596158</v>
+      </c>
+      <c r="H4">
+        <v>-0.05771969785303609</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.02084828729245289</v>
+        <v>-0.02492575227259249</v>
       </c>
       <c r="C6">
-        <v>-0.01292817003787327</v>
+        <v>0.004848358710962526</v>
       </c>
       <c r="D6">
-        <v>0.006134062759624137</v>
+        <v>0.05280418983787471</v>
       </c>
       <c r="E6">
-        <v>-0.02006726780956821</v>
+        <v>0.007088395369842919</v>
       </c>
       <c r="F6">
-        <v>0.02429622587480634</v>
+        <v>0.03284283604725661</v>
       </c>
       <c r="G6">
-        <v>-0.003689955503476944</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.008165903379296359</v>
+      </c>
+      <c r="H6">
+        <v>-0.06492822397879838</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02234699592314953</v>
+        <v>-0.02061682708873044</v>
       </c>
       <c r="C7">
-        <v>-0.005879616193277994</v>
+        <v>0.003600213979713109</v>
       </c>
       <c r="D7">
-        <v>0.01287844222338789</v>
+        <v>0.0269796855664041</v>
       </c>
       <c r="E7">
-        <v>-0.02951062297658766</v>
+        <v>0.04268649327535012</v>
       </c>
       <c r="F7">
-        <v>0.05139269191385387</v>
+        <v>0.007900936839578073</v>
       </c>
       <c r="G7">
-        <v>0.06999029074586688</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.01858278119133648</v>
+      </c>
+      <c r="H7">
+        <v>-0.0393237730193426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01786064341919789</v>
+        <v>-0.005822051773014148</v>
       </c>
       <c r="C8">
-        <v>-0.01450739519024622</v>
+        <v>-0.001335424914560989</v>
       </c>
       <c r="D8">
-        <v>0.002459539137987838</v>
+        <v>0.01037315147167818</v>
       </c>
       <c r="E8">
-        <v>-0.04126172715517768</v>
+        <v>0.007159235894927759</v>
       </c>
       <c r="F8">
-        <v>0.104819449920903</v>
+        <v>0.02066780714387888</v>
       </c>
       <c r="G8">
-        <v>0.06126370521792507</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.03972204977138698</v>
+      </c>
+      <c r="H8">
+        <v>-0.04600162075930338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03262278600328621</v>
+        <v>-0.03496362706032709</v>
       </c>
       <c r="C9">
-        <v>-0.01702919231727356</v>
+        <v>0.001783883205036299</v>
       </c>
       <c r="D9">
-        <v>-0.009060859099395363</v>
+        <v>0.03583024208617237</v>
       </c>
       <c r="E9">
-        <v>-0.03814897912295773</v>
+        <v>0.010973986724689</v>
       </c>
       <c r="F9">
-        <v>0.09296370987273421</v>
+        <v>0.03028275858580738</v>
       </c>
       <c r="G9">
-        <v>0.06369038198836957</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04052473545658358</v>
+      </c>
+      <c r="H9">
+        <v>-0.05809948775967072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02979457856640686</v>
+        <v>-0.106233085641851</v>
       </c>
       <c r="C10">
-        <v>0.07187884838334783</v>
+        <v>-0.02778542041871119</v>
       </c>
       <c r="D10">
-        <v>-0.0709969371026905</v>
+        <v>-0.1543686089971972</v>
       </c>
       <c r="E10">
-        <v>0.113478985196234</v>
+        <v>-0.005669025156247388</v>
       </c>
       <c r="F10">
-        <v>0.05843615547054672</v>
+        <v>-0.04475142104173194</v>
       </c>
       <c r="G10">
-        <v>0.001934235200417193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02527463481219843</v>
+      </c>
+      <c r="H10">
+        <v>-0.009066122753458233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.0326688046477119</v>
+        <v>-0.01961553084803944</v>
       </c>
       <c r="C11">
-        <v>-0.02190979477673449</v>
+        <v>-0.007290591055333506</v>
       </c>
       <c r="D11">
-        <v>0.01498864999798145</v>
+        <v>0.03981425890769901</v>
       </c>
       <c r="E11">
-        <v>-0.02921439021953695</v>
+        <v>-0.0007352667537698694</v>
       </c>
       <c r="F11">
-        <v>0.04604311674745411</v>
+        <v>0.01197166009917478</v>
       </c>
       <c r="G11">
-        <v>0.0247154657525766</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.02055808555079666</v>
+      </c>
+      <c r="H11">
+        <v>-0.0476781167566535</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04082049645683387</v>
+        <v>-0.02727874925197673</v>
       </c>
       <c r="C12">
-        <v>-0.02209784222520578</v>
+        <v>-0.005210622714704967</v>
       </c>
       <c r="D12">
-        <v>0.009600951037017096</v>
+        <v>0.04104437811588862</v>
       </c>
       <c r="E12">
-        <v>-0.04094106750773338</v>
+        <v>0.008339675885015285</v>
       </c>
       <c r="F12">
-        <v>0.03151342043646285</v>
+        <v>0.01828246986250291</v>
       </c>
       <c r="G12">
-        <v>0.01128792408894737</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.005892654778188912</v>
+      </c>
+      <c r="H12">
+        <v>-0.02247359613852202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01321860918917968</v>
+        <v>-0.02496242736520924</v>
       </c>
       <c r="C13">
-        <v>-0.0252328740672886</v>
+        <v>0.0149790758547097</v>
       </c>
       <c r="D13">
-        <v>-0.001703922919496568</v>
+        <v>-0.0001671931882297337</v>
       </c>
       <c r="E13">
-        <v>0.003146904029243659</v>
+        <v>-0.01185395121451957</v>
       </c>
       <c r="F13">
-        <v>0.07554006339891851</v>
+        <v>0.01552832186834639</v>
       </c>
       <c r="G13">
-        <v>0.0474037895009411</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.04697053999661518</v>
+      </c>
+      <c r="H13">
+        <v>-0.06688075090193611</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01607118073296554</v>
+        <v>-0.01766320861699153</v>
       </c>
       <c r="C14">
-        <v>-0.004606963699969198</v>
+        <v>0.0009786884439737477</v>
       </c>
       <c r="D14">
-        <v>-0.005788125296774566</v>
+        <v>0.005626884009332957</v>
       </c>
       <c r="E14">
-        <v>-0.03557760300137766</v>
+        <v>0.01295253814626281</v>
       </c>
       <c r="F14">
-        <v>0.05900765031692171</v>
+        <v>0.016163964904879</v>
       </c>
       <c r="G14">
-        <v>0.07647151029648958</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.03891070848753628</v>
+      </c>
+      <c r="H14">
+        <v>-0.01204140695937732</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.0254120067924072</v>
+        <v>-0.0212592977787919</v>
       </c>
       <c r="C16">
-        <v>-0.02558083630092369</v>
+        <v>-0.007876654591800964</v>
       </c>
       <c r="D16">
-        <v>0.01242153872897391</v>
+        <v>0.03494138870754863</v>
       </c>
       <c r="E16">
-        <v>-0.02324521321865771</v>
+        <v>0.002688745059687867</v>
       </c>
       <c r="F16">
-        <v>0.05133407635391941</v>
+        <v>0.01763595116641369</v>
       </c>
       <c r="G16">
-        <v>0.02668654187048075</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.01844873094587144</v>
+      </c>
+      <c r="H16">
+        <v>-0.03814844780877399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.04680007017496679</v>
+        <v>-0.03340348381254674</v>
       </c>
       <c r="C19">
-        <v>-0.02362090142491197</v>
+        <v>0.001184087738095244</v>
       </c>
       <c r="D19">
-        <v>0.007870650676010588</v>
+        <v>0.02226290862981336</v>
       </c>
       <c r="E19">
-        <v>-0.03701730226439064</v>
+        <v>0.005557250379201998</v>
       </c>
       <c r="F19">
-        <v>0.1064385705517314</v>
+        <v>0.02491149020281837</v>
       </c>
       <c r="G19">
-        <v>0.03253442425630221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.04930341355489748</v>
+      </c>
+      <c r="H19">
+        <v>-0.07358184641818728</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001070426379002942</v>
+        <v>-0.009084460409117721</v>
       </c>
       <c r="C20">
-        <v>-0.01023659364021815</v>
+        <v>0.007019996355941974</v>
       </c>
       <c r="D20">
-        <v>-0.005593340630998452</v>
+        <v>0.008114010119113606</v>
       </c>
       <c r="E20">
-        <v>-0.03205613269059788</v>
+        <v>0.003950152170822596</v>
       </c>
       <c r="F20">
-        <v>0.07213035511659449</v>
+        <v>0.01607934292248347</v>
       </c>
       <c r="G20">
-        <v>0.07572596599611912</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04396213555356028</v>
+      </c>
+      <c r="H20">
+        <v>-0.02176535381713838</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.004363009382105281</v>
+        <v>-0.01367216054210944</v>
       </c>
       <c r="C21">
-        <v>0.01440075289399931</v>
+        <v>0.009163324534104862</v>
       </c>
       <c r="D21">
-        <v>0.01990702241419915</v>
+        <v>0.009361135495460138</v>
       </c>
       <c r="E21">
-        <v>-0.01812335682631671</v>
+        <v>0.01754774217711926</v>
       </c>
       <c r="F21">
-        <v>0.05459675662183908</v>
+        <v>0.00621442092370913</v>
       </c>
       <c r="G21">
-        <v>0.03357637371811711</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.04209555158057354</v>
+      </c>
+      <c r="H21">
+        <v>-0.04762694867873327</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02984942461507488</v>
+        <v>-0.01851570697225945</v>
       </c>
       <c r="C24">
-        <v>-0.02460394185905128</v>
+        <v>-0.00220682188449866</v>
       </c>
       <c r="D24">
-        <v>-6.567134899640464e-05</v>
+        <v>0.03552276230933473</v>
       </c>
       <c r="E24">
-        <v>-0.009963456682137023</v>
+        <v>0.0003831751050512318</v>
       </c>
       <c r="F24">
-        <v>0.04358498572586016</v>
+        <v>0.01254981551315207</v>
       </c>
       <c r="G24">
-        <v>0.02423515990236414</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.01208991469547668</v>
+      </c>
+      <c r="H24">
+        <v>-0.0461624256767211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02972275061068499</v>
+        <v>-0.02850717314360768</v>
       </c>
       <c r="C25">
-        <v>-0.01569000371873452</v>
+        <v>-2.83851470959723e-05</v>
       </c>
       <c r="D25">
-        <v>0.01463302238377147</v>
+        <v>0.03521836272440443</v>
       </c>
       <c r="E25">
-        <v>-0.03068156420494649</v>
+        <v>0.004772899485553042</v>
       </c>
       <c r="F25">
-        <v>0.05006422983457406</v>
+        <v>0.01897596586621454</v>
       </c>
       <c r="G25">
-        <v>0.01065578363630773</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.01740768508548831</v>
+      </c>
+      <c r="H25">
+        <v>-0.04613331945018394</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01927593058197164</v>
+        <v>-0.01838013128389285</v>
       </c>
       <c r="C26">
-        <v>-0.01342160226790643</v>
+        <v>0.01819341488074286</v>
       </c>
       <c r="D26">
-        <v>0.02869214695585767</v>
+        <v>0.001775480616279971</v>
       </c>
       <c r="E26">
-        <v>-0.003965077935628011</v>
+        <v>-0.001877654556040261</v>
       </c>
       <c r="F26">
-        <v>0.06817496598894678</v>
+        <v>0.0002334580380757579</v>
       </c>
       <c r="G26">
-        <v>0.05163877973887486</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03019200937813313</v>
+      </c>
+      <c r="H26">
+        <v>-0.02131670817456513</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.06066278977591372</v>
+        <v>-0.02298058824571644</v>
       </c>
       <c r="C27">
-        <v>-0.01903944872185848</v>
+        <v>-0.008184391633808087</v>
       </c>
       <c r="D27">
-        <v>-0.02945970252739843</v>
+        <v>0.01603802604728236</v>
       </c>
       <c r="E27">
-        <v>-0.03976587813966875</v>
+        <v>0.005146874825592674</v>
       </c>
       <c r="F27">
-        <v>0.05830918173495164</v>
+        <v>0.01602786064277864</v>
       </c>
       <c r="G27">
-        <v>0.04501417820377936</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01663328662126198</v>
+      </c>
+      <c r="H27">
+        <v>-0.004449111887327347</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.0462957070342726</v>
+        <v>-0.1564351731798764</v>
       </c>
       <c r="C28">
-        <v>0.08462777680922855</v>
+        <v>-0.02781243025648338</v>
       </c>
       <c r="D28">
-        <v>-0.1097524311153703</v>
+        <v>-0.2175763906648887</v>
       </c>
       <c r="E28">
-        <v>0.1504708286593893</v>
+        <v>-0.002550531002046295</v>
       </c>
       <c r="F28">
-        <v>0.05523385338179085</v>
+        <v>-0.04532550285188459</v>
       </c>
       <c r="G28">
-        <v>0.02562118739097111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.0113408701068491</v>
+      </c>
+      <c r="H28">
+        <v>0.009160370310488643</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02254567569269717</v>
+        <v>-0.02134385981241217</v>
       </c>
       <c r="C29">
-        <v>-0.003050360409171182</v>
+        <v>-0.0006275811306845404</v>
       </c>
       <c r="D29">
-        <v>-0.005302447897547921</v>
+        <v>0.007089714709861945</v>
       </c>
       <c r="E29">
-        <v>-0.04929899034230363</v>
+        <v>0.01260535591350395</v>
       </c>
       <c r="F29">
-        <v>0.05023296746648703</v>
+        <v>0.01775212924952058</v>
       </c>
       <c r="G29">
-        <v>0.06918405291077515</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03668752496529705</v>
+      </c>
+      <c r="H29">
+        <v>-0.004998148392438411</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.08892738079691238</v>
+        <v>-0.04921268201978831</v>
       </c>
       <c r="C30">
-        <v>-0.0611072549174202</v>
+        <v>0.006628366080876415</v>
       </c>
       <c r="D30">
-        <v>-0.00676730699326233</v>
+        <v>0.07226267853137459</v>
       </c>
       <c r="E30">
-        <v>-0.07334189180140765</v>
+        <v>-0.02906204559452028</v>
       </c>
       <c r="F30">
-        <v>0.09020565246617791</v>
+        <v>0.05408403760994887</v>
       </c>
       <c r="G30">
-        <v>0.05140880438309923</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.04360160445952817</v>
+      </c>
+      <c r="H30">
+        <v>-0.0698307982034885</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05907012281564371</v>
+        <v>-0.05257682689450993</v>
       </c>
       <c r="C31">
-        <v>-0.0339629496706767</v>
+        <v>-0.01258280228191021</v>
       </c>
       <c r="D31">
-        <v>0.01424915556468806</v>
+        <v>0.02500296399439335</v>
       </c>
       <c r="E31">
-        <v>-0.0005097449216914652</v>
+        <v>-0.005981295705744418</v>
       </c>
       <c r="F31">
-        <v>0.03933685912743501</v>
+        <v>0.01045243445628233</v>
       </c>
       <c r="G31">
-        <v>0.0819122942378267</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01355437245083714</v>
+      </c>
+      <c r="H31">
+        <v>-0.008536516705656466</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01958265176408113</v>
+        <v>-0.01087722242955327</v>
       </c>
       <c r="C32">
-        <v>-0.01729046958853103</v>
+        <v>-0.01313776045340475</v>
       </c>
       <c r="D32">
-        <v>0.01482373518006966</v>
+        <v>0.007716772986582431</v>
       </c>
       <c r="E32">
-        <v>-0.08002424884245635</v>
+        <v>0.03047397825024114</v>
       </c>
       <c r="F32">
-        <v>0.08007935290426484</v>
+        <v>0.0424604314917953</v>
       </c>
       <c r="G32">
-        <v>0.06196075476079489</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.02526344011886676</v>
+      </c>
+      <c r="H32">
+        <v>-0.06273357728146406</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.04653617303415782</v>
+        <v>-0.03838423881130063</v>
       </c>
       <c r="C33">
-        <v>-0.02947243704060475</v>
+        <v>-0.0003559535886828157</v>
       </c>
       <c r="D33">
-        <v>0.03882161354693695</v>
+        <v>0.03238920423271449</v>
       </c>
       <c r="E33">
-        <v>-0.02710451422212697</v>
+        <v>-0.02339937034593459</v>
       </c>
       <c r="F33">
-        <v>0.08739099399611687</v>
+        <v>0.005412142500976411</v>
       </c>
       <c r="G33">
-        <v>0.07263187114462526</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.0406157984458461</v>
+      </c>
+      <c r="H33">
+        <v>-0.04465289243546204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02909249184785382</v>
+        <v>-0.0245085726525197</v>
       </c>
       <c r="C34">
-        <v>-0.02525150572805222</v>
+        <v>-0.01582135613443317</v>
       </c>
       <c r="D34">
-        <v>0.008575448739999467</v>
+        <v>0.03655259838283734</v>
       </c>
       <c r="E34">
-        <v>-0.02963486439580131</v>
+        <v>0.009144800837473018</v>
       </c>
       <c r="F34">
-        <v>0.05613266527310106</v>
+        <v>0.01973061364403849</v>
       </c>
       <c r="G34">
-        <v>0.01465588864113434</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01443363930897335</v>
+      </c>
+      <c r="H34">
+        <v>-0.03924688271976647</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01404893683718862</v>
+        <v>-0.01989810624089023</v>
       </c>
       <c r="C36">
-        <v>-0.001246008466940887</v>
+        <v>0.004719338338370717</v>
       </c>
       <c r="D36">
-        <v>0.001966789497687335</v>
+        <v>0.001590397141380185</v>
       </c>
       <c r="E36">
-        <v>-0.02759220043440776</v>
+        <v>0.006809341343945993</v>
       </c>
       <c r="F36">
-        <v>0.03488004725447962</v>
+        <v>0.00487581265464837</v>
       </c>
       <c r="G36">
-        <v>0.04067689675052932</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01701686819988873</v>
+      </c>
+      <c r="H36">
+        <v>-0.01226429904890844</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.0002931910324488812</v>
+        <v>-0.02391378657010714</v>
       </c>
       <c r="C38">
-        <v>0.009024863964073159</v>
+        <v>-0.01597557472430235</v>
       </c>
       <c r="D38">
-        <v>0.01579260650910463</v>
+        <v>0.007077449651480272</v>
       </c>
       <c r="E38">
-        <v>0.02500608516153429</v>
+        <v>-0.001539577064386227</v>
       </c>
       <c r="F38">
-        <v>0.03883180164091698</v>
+        <v>0.00939345799162818</v>
       </c>
       <c r="G38">
-        <v>0.02363143812130147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01527889742375781</v>
+      </c>
+      <c r="H38">
+        <v>-0.03603301703259758</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03746245071211763</v>
+        <v>-0.01434484811067156</v>
       </c>
       <c r="C39">
-        <v>-0.04633163710621477</v>
+        <v>0.0006383725840654386</v>
       </c>
       <c r="D39">
-        <v>0.01386732097148345</v>
+        <v>0.07747378846826597</v>
       </c>
       <c r="E39">
-        <v>-0.03428998764609115</v>
+        <v>-0.002252671620692285</v>
       </c>
       <c r="F39">
-        <v>0.06859478397769976</v>
+        <v>0.02309076685792328</v>
       </c>
       <c r="G39">
-        <v>0.02932669750406339</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.03274361948056009</v>
+      </c>
+      <c r="H39">
+        <v>-0.07350955703750441</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.0336490782580069</v>
+        <v>-0.02974978955439603</v>
       </c>
       <c r="C40">
-        <v>-0.07420182482432378</v>
+        <v>0.0001075127739948931</v>
       </c>
       <c r="D40">
-        <v>-0.003414195650990987</v>
+        <v>0.02213570358800394</v>
       </c>
       <c r="E40">
-        <v>0.004393243651990536</v>
+        <v>-0.02426790026917982</v>
       </c>
       <c r="F40">
-        <v>0.07159861137146091</v>
+        <v>0.03294060532467576</v>
       </c>
       <c r="G40">
-        <v>0.0515850240422218</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.0166213651424876</v>
+      </c>
+      <c r="H40">
+        <v>-0.0663205650887735</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.0003436327702404095</v>
+        <v>-0.0108474821234456</v>
       </c>
       <c r="C41">
-        <v>0.001169017586496511</v>
+        <v>0.001003327265186105</v>
       </c>
       <c r="D41">
-        <v>0.01312349341971884</v>
+        <v>-0.01278368852274299</v>
       </c>
       <c r="E41">
-        <v>-0.004695769264744061</v>
+        <v>-0.003043150298173275</v>
       </c>
       <c r="F41">
-        <v>0.009590990278157433</v>
+        <v>-0.004082352034237353</v>
       </c>
       <c r="G41">
-        <v>0.06093413148837794</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.005643123107519332</v>
+      </c>
+      <c r="H41">
+        <v>0.007890030094611384</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3827944530094549</v>
+        <v>-0.187980803116053</v>
       </c>
       <c r="C42">
-        <v>0.388745382841173</v>
+        <v>0.07562144704199311</v>
       </c>
       <c r="D42">
-        <v>0.7153139215068594</v>
+        <v>0.3335400237660289</v>
       </c>
       <c r="E42">
-        <v>0.2827240304409337</v>
+        <v>-0.1779307939957055</v>
       </c>
       <c r="F42">
-        <v>-0.2318421045053314</v>
+        <v>-0.8832321644007642</v>
       </c>
       <c r="G42">
-        <v>0.1458390717021774</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.1256863058338311</v>
+      </c>
+      <c r="H42">
+        <v>0.04042896157010258</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004783420266327752</v>
+        <v>-0.01358023353098855</v>
       </c>
       <c r="C43">
-        <v>0.002597376481100382</v>
+        <v>0.001204318044211944</v>
       </c>
       <c r="D43">
-        <v>0.01804449517691495</v>
+        <v>-0.01359555682602654</v>
       </c>
       <c r="E43">
-        <v>-0.005362710771949281</v>
+        <v>-0.005376841849273151</v>
       </c>
       <c r="F43">
-        <v>0.02289800129582657</v>
+        <v>-0.008418885755589259</v>
       </c>
       <c r="G43">
-        <v>0.05901918732331332</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.005367018555296547</v>
+      </c>
+      <c r="H43">
+        <v>-0.003692669964878777</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01296230248996751</v>
+        <v>-0.01469050412062936</v>
       </c>
       <c r="C44">
-        <v>0.000994691923886566</v>
+        <v>-0.001298934386784378</v>
       </c>
       <c r="D44">
-        <v>0.01258661784498855</v>
+        <v>0.02353324307790352</v>
       </c>
       <c r="E44">
-        <v>-0.01393051264674786</v>
+        <v>0.00606869469748539</v>
       </c>
       <c r="F44">
-        <v>0.1075365963701893</v>
+        <v>-0.0002192882198919839</v>
       </c>
       <c r="G44">
-        <v>0.1003528380894469</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.0323677982625567</v>
+      </c>
+      <c r="H44">
+        <v>-0.06252301826378387</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02099092567107458</v>
+        <v>-0.01795032775433232</v>
       </c>
       <c r="C46">
-        <v>-0.01608575479734167</v>
+        <v>0.004534959351437116</v>
       </c>
       <c r="D46">
-        <v>0.02039473594641109</v>
+        <v>0.01196966809175225</v>
       </c>
       <c r="E46">
-        <v>-0.04135412191063079</v>
+        <v>8.054656359992897e-05</v>
       </c>
       <c r="F46">
-        <v>0.06662518014761455</v>
+        <v>0.01580982218201991</v>
       </c>
       <c r="G46">
-        <v>0.07687021923123388</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.04354626789974551</v>
+      </c>
+      <c r="H46">
+        <v>-0.01647426347625752</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09553735034707882</v>
+        <v>-0.07347165438709032</v>
       </c>
       <c r="C47">
-        <v>-0.03539330227650819</v>
+        <v>-0.02778920919700818</v>
       </c>
       <c r="D47">
-        <v>-0.00234358065233288</v>
+        <v>0.04746144272195191</v>
       </c>
       <c r="E47">
-        <v>-0.02525001499842188</v>
+        <v>-0.0005673171893003662</v>
       </c>
       <c r="F47">
-        <v>0.02479861647889081</v>
+        <v>0.02173401542625291</v>
       </c>
       <c r="G47">
-        <v>0.09845556660712559</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.01079433850247249</v>
+      </c>
+      <c r="H47">
+        <v>0.0220289969487436</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01554717365397293</v>
+        <v>-0.02142166668010622</v>
       </c>
       <c r="C48">
-        <v>-0.007967578490072669</v>
+        <v>-0.005670373193519512</v>
       </c>
       <c r="D48">
-        <v>0.01577792061127786</v>
+        <v>0.006744630180661768</v>
       </c>
       <c r="E48">
-        <v>-0.01812802311905446</v>
+        <v>0.0005077795511628556</v>
       </c>
       <c r="F48">
-        <v>0.05313202799492545</v>
+        <v>0.008099527835336908</v>
       </c>
       <c r="G48">
-        <v>0.0352024969895425</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.0231063570496398</v>
+      </c>
+      <c r="H48">
+        <v>-0.020397687067422</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08523849343413584</v>
+        <v>-0.07095643365146474</v>
       </c>
       <c r="C50">
-        <v>-0.04182767728030069</v>
+        <v>-0.02490554088454827</v>
       </c>
       <c r="D50">
-        <v>0.01754413762074791</v>
+        <v>0.0473319542599606</v>
       </c>
       <c r="E50">
-        <v>-0.02870781889891369</v>
+        <v>0.01379406749564521</v>
       </c>
       <c r="F50">
-        <v>0.05126960132238048</v>
+        <v>0.01911018063132806</v>
       </c>
       <c r="G50">
-        <v>0.05470968587601379</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.01051633449983701</v>
+      </c>
+      <c r="H50">
+        <v>-0.0005994441265869311</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.0171155611706911</v>
+        <v>-0.01797926749977866</v>
       </c>
       <c r="C51">
-        <v>0.01099241072579484</v>
+        <v>0.002224284739694788</v>
       </c>
       <c r="D51">
-        <v>0.008554161740855045</v>
+        <v>-0.006472035744531437</v>
       </c>
       <c r="E51">
-        <v>0.009810862949842526</v>
+        <v>0.004218310892816981</v>
       </c>
       <c r="F51">
-        <v>0.1138516286878392</v>
+        <v>-0.009332606406864542</v>
       </c>
       <c r="G51">
-        <v>0.06893427450973759</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04257806582173622</v>
+      </c>
+      <c r="H51">
+        <v>-0.05782007910248597</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1000639683108435</v>
+        <v>-0.0891789204597682</v>
       </c>
       <c r="C53">
-        <v>-0.05060288507263466</v>
+        <v>-0.0336755806232626</v>
       </c>
       <c r="D53">
-        <v>0.005158111939942639</v>
+        <v>0.08344139783408956</v>
       </c>
       <c r="E53">
-        <v>-0.04289081154846471</v>
+        <v>0.003384144743293059</v>
       </c>
       <c r="F53">
-        <v>-0.04263227536089769</v>
+        <v>0.04445004765970445</v>
       </c>
       <c r="G53">
-        <v>0.03297063305429957</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.04619969256870821</v>
+      </c>
+      <c r="H53">
+        <v>0.04674716138208598</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02151196512529949</v>
+        <v>-0.02551317986156557</v>
       </c>
       <c r="C54">
-        <v>-0.00658677847790317</v>
+        <v>-0.01049383977646848</v>
       </c>
       <c r="D54">
-        <v>-0.0141023244637768</v>
+        <v>-0.01283216098441846</v>
       </c>
       <c r="E54">
-        <v>-0.03705550116974594</v>
+        <v>0.006581862018451807</v>
       </c>
       <c r="F54">
-        <v>0.05025383687987866</v>
+        <v>0.008277692552524869</v>
       </c>
       <c r="G54">
-        <v>0.08570182611443801</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03662828754248845</v>
+      </c>
+      <c r="H54">
+        <v>0.002206100083185861</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1060346913574932</v>
+        <v>-0.07422381031984349</v>
       </c>
       <c r="C55">
-        <v>-0.02458388710539798</v>
+        <v>-0.02933831232446958</v>
       </c>
       <c r="D55">
-        <v>-0.009062201178434315</v>
+        <v>0.07991025561811924</v>
       </c>
       <c r="E55">
-        <v>-0.07026407824174295</v>
+        <v>0.01129061041870897</v>
       </c>
       <c r="F55">
-        <v>-0.03079516309701167</v>
+        <v>0.03779985090595115</v>
       </c>
       <c r="G55">
-        <v>0.07400373476417467</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.01998313169616462</v>
+      </c>
+      <c r="H55">
+        <v>0.05348405374416981</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1430760716396089</v>
+        <v>-0.1221551169503932</v>
       </c>
       <c r="C56">
-        <v>-0.07289699709743097</v>
+        <v>-0.05166843780276546</v>
       </c>
       <c r="D56">
-        <v>-0.03009169324938319</v>
+        <v>0.1073069576201819</v>
       </c>
       <c r="E56">
-        <v>-0.06393210696337409</v>
+        <v>0.003989930283160463</v>
       </c>
       <c r="F56">
-        <v>-0.08811368424112495</v>
+        <v>0.06878237075403532</v>
       </c>
       <c r="G56">
-        <v>-0.03618448934565366</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.07658195905863496</v>
+      </c>
+      <c r="H56">
+        <v>0.06053344815645529</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04739613386418929</v>
+        <v>-0.03817876157116119</v>
       </c>
       <c r="C57">
-        <v>-0.008746055641678354</v>
+        <v>0.01119607111038621</v>
       </c>
       <c r="D57">
-        <v>0.007251852355128201</v>
+        <v>0.0319643252061969</v>
       </c>
       <c r="E57">
-        <v>0.01566495518668363</v>
+        <v>-0.005375756305932603</v>
       </c>
       <c r="F57">
-        <v>0.07512107975614581</v>
+        <v>0.02000769063248525</v>
       </c>
       <c r="G57">
-        <v>0.06505803273802949</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.05172458511531541</v>
+      </c>
+      <c r="H57">
+        <v>-0.04387982580079704</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2075581194761287</v>
+        <v>-0.1457522623373712</v>
       </c>
       <c r="C58">
-        <v>-0.1196268905842581</v>
+        <v>-0.04105160435267256</v>
       </c>
       <c r="D58">
-        <v>0.07028431339385643</v>
+        <v>0.1560712761086061</v>
       </c>
       <c r="E58">
-        <v>-0.1009425539737372</v>
+        <v>-0.1723967850969464</v>
       </c>
       <c r="F58">
-        <v>0.3599350635642264</v>
+        <v>0.002245887585231793</v>
       </c>
       <c r="G58">
-        <v>0.1056807921910461</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.864282151872379</v>
+      </c>
+      <c r="H58">
+        <v>0.3068837996552927</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.04841572595599305</v>
+        <v>-0.1684206852823719</v>
       </c>
       <c r="C59">
-        <v>0.03930880477569752</v>
+        <v>-0.03698721601100179</v>
       </c>
       <c r="D59">
-        <v>-0.1132110001259853</v>
+        <v>-0.2172232058864236</v>
       </c>
       <c r="E59">
-        <v>0.1410271433688044</v>
+        <v>-0.02128405289920803</v>
       </c>
       <c r="F59">
-        <v>0.07189369549350015</v>
+        <v>-0.02355282885277086</v>
       </c>
       <c r="G59">
-        <v>-0.002795757392153007</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.01487173326479179</v>
+      </c>
+      <c r="H59">
+        <v>-0.02466563416446728</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.157592254978705</v>
+        <v>-0.1760917772203067</v>
       </c>
       <c r="C60">
-        <v>-0.06686965446993245</v>
+        <v>-0.0332761420639671</v>
       </c>
       <c r="D60">
-        <v>0.04348129349782758</v>
+        <v>0.02502153579665522</v>
       </c>
       <c r="E60">
-        <v>0.07875474862945307</v>
+        <v>-0.04743610393049092</v>
       </c>
       <c r="F60">
-        <v>0.1672342887573578</v>
+        <v>0.04025649404842015</v>
       </c>
       <c r="G60">
-        <v>-0.3103745091832192</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.01373046705832293</v>
+      </c>
+      <c r="H60">
+        <v>-0.3846548042439082</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.01999815218453256</v>
+        <v>-0.02062315678180765</v>
       </c>
       <c r="C61">
-        <v>-0.01449599247431328</v>
+        <v>-0.005735630140046607</v>
       </c>
       <c r="D61">
-        <v>0.01214751626417382</v>
+        <v>0.04373966640382899</v>
       </c>
       <c r="E61">
-        <v>-0.0177873219954463</v>
+        <v>0.00481053834871895</v>
       </c>
       <c r="F61">
-        <v>0.03803016809833736</v>
+        <v>0.02173102694518973</v>
       </c>
       <c r="G61">
-        <v>0.01783767137256526</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.01696718214672641</v>
+      </c>
+      <c r="H61">
+        <v>-0.05469224949994173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01709952544954916</v>
+        <v>-0.0127885873602282</v>
       </c>
       <c r="C63">
-        <v>-0.006835864321495048</v>
+        <v>0.002788929109508861</v>
       </c>
       <c r="D63">
-        <v>0.01884440289784754</v>
+        <v>0.01825177371226392</v>
       </c>
       <c r="E63">
-        <v>-0.03335294768331796</v>
+        <v>0.004873923324271924</v>
       </c>
       <c r="F63">
-        <v>0.02098412274964719</v>
+        <v>0.01410690216602064</v>
       </c>
       <c r="G63">
-        <v>0.07109310073262901</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01589646578482139</v>
+      </c>
+      <c r="H63">
+        <v>-0.009391667865606048</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03278424498731887</v>
+        <v>-0.03729824922134557</v>
       </c>
       <c r="C64">
-        <v>-0.003631521584842021</v>
+        <v>-0.007884422316648628</v>
       </c>
       <c r="D64">
-        <v>-0.003844605119695621</v>
+        <v>0.03738499656533454</v>
       </c>
       <c r="E64">
-        <v>-0.06141613286766556</v>
+        <v>0.01196476359614699</v>
       </c>
       <c r="F64">
-        <v>0.02557348866474364</v>
+        <v>0.005993279970737037</v>
       </c>
       <c r="G64">
-        <v>0.05448327829120496</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.0008977548402547492</v>
+      </c>
+      <c r="H64">
+        <v>-0.03521308855267478</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.02195450159990267</v>
+        <v>-0.02977457313532025</v>
       </c>
       <c r="C65">
-        <v>-0.01543210611486168</v>
+        <v>0.005175270004071144</v>
       </c>
       <c r="D65">
-        <v>0.007748652786469979</v>
+        <v>0.05993311887537118</v>
       </c>
       <c r="E65">
-        <v>-0.02164569898824461</v>
+        <v>0.01007136743622917</v>
       </c>
       <c r="F65">
-        <v>0.01803126812082794</v>
+        <v>0.03583959802237437</v>
       </c>
       <c r="G65">
-        <v>-0.009964962346717617</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.004498205102594555</v>
+      </c>
+      <c r="H65">
+        <v>-0.06971645227692595</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03466342839350778</v>
+        <v>-0.02010957149108773</v>
       </c>
       <c r="C66">
-        <v>-0.04992121094624541</v>
+        <v>-0.003786435260654839</v>
       </c>
       <c r="D66">
-        <v>0.01902334395309506</v>
+        <v>0.09208821172483199</v>
       </c>
       <c r="E66">
-        <v>-0.03377563626970188</v>
+        <v>-0.003916334417131274</v>
       </c>
       <c r="F66">
-        <v>0.05589868476358271</v>
+        <v>0.0407926893137666</v>
       </c>
       <c r="G66">
-        <v>0.01415242077043497</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.02427184245138205</v>
+      </c>
+      <c r="H66">
+        <v>-0.07628969267935921</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.0115912686604561</v>
+        <v>-0.04309027064970438</v>
       </c>
       <c r="C67">
-        <v>-0.001108965046768696</v>
+        <v>-0.01879015799558299</v>
       </c>
       <c r="D67">
-        <v>0.01092783725684946</v>
+        <v>0.005997600307161408</v>
       </c>
       <c r="E67">
-        <v>0.0395908923015998</v>
+        <v>-0.00574968253806069</v>
       </c>
       <c r="F67">
-        <v>0.0248829551066749</v>
+        <v>0.01735618705134531</v>
       </c>
       <c r="G67">
-        <v>0.007207493028722173</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.0008237802595850644</v>
+      </c>
+      <c r="H67">
+        <v>-0.03313099321391458</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06332657288021505</v>
+        <v>-0.1645600955054091</v>
       </c>
       <c r="C68">
-        <v>0.06676363791321019</v>
+        <v>-0.01556618767773459</v>
       </c>
       <c r="D68">
-        <v>-0.1351157973013366</v>
+        <v>-0.2196033942195591</v>
       </c>
       <c r="E68">
-        <v>0.1372813717039114</v>
+        <v>-0.0154910903181591</v>
       </c>
       <c r="F68">
-        <v>0.06239250549527187</v>
+        <v>-0.05042269843749101</v>
       </c>
       <c r="G68">
-        <v>-0.0415272019818712</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.03015212715822492</v>
+      </c>
+      <c r="H68">
+        <v>0.04069455368125266</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07147582980159752</v>
+        <v>-0.05864432822570304</v>
       </c>
       <c r="C69">
-        <v>-0.03975068841662671</v>
+        <v>-0.02719388622034282</v>
       </c>
       <c r="D69">
-        <v>-0.007831918928153197</v>
+        <v>0.04330484338303291</v>
       </c>
       <c r="E69">
-        <v>-0.005922564462907346</v>
+        <v>-0.002453552747934247</v>
       </c>
       <c r="F69">
-        <v>0.0201065151133572</v>
+        <v>0.03098405878647199</v>
       </c>
       <c r="G69">
-        <v>0.09130758180074575</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01790048494916513</v>
+      </c>
+      <c r="H69">
+        <v>-0.003926969531716409</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07079291827871789</v>
+        <v>-0.15417410790987</v>
       </c>
       <c r="C71">
-        <v>0.07328303683503695</v>
+        <v>-0.02332180957443727</v>
       </c>
       <c r="D71">
-        <v>-0.1217973493542434</v>
+        <v>-0.1917915645950866</v>
       </c>
       <c r="E71">
-        <v>0.195957356107119</v>
+        <v>-0.02070734335302098</v>
       </c>
       <c r="F71">
-        <v>0.06350175838881449</v>
+        <v>-0.05613560833466506</v>
       </c>
       <c r="G71">
-        <v>0.01765973608133024</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.02499662475349131</v>
+      </c>
+      <c r="H71">
+        <v>0.02309565897073277</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1147342535659742</v>
+        <v>-0.07916524483968379</v>
       </c>
       <c r="C72">
-        <v>-0.08239662081407544</v>
+        <v>-0.03655092629631262</v>
       </c>
       <c r="D72">
-        <v>-0.0365722660123532</v>
+        <v>0.0829235733551785</v>
       </c>
       <c r="E72">
-        <v>-0.02288882352628837</v>
+        <v>-0.01142544673168284</v>
       </c>
       <c r="F72">
-        <v>0.130500734305034</v>
+        <v>0.08234786620889727</v>
       </c>
       <c r="G72">
-        <v>-0.08939075452909423</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.03953232834571928</v>
+      </c>
+      <c r="H72">
+        <v>-0.1685815041987012</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2349209331126062</v>
+        <v>-0.2360863705510027</v>
       </c>
       <c r="C73">
-        <v>-0.07498385001335627</v>
+        <v>-0.04151231369099669</v>
       </c>
       <c r="D73">
-        <v>0.04077418276161995</v>
+        <v>0.08071948534467996</v>
       </c>
       <c r="E73">
-        <v>0.1890597636592014</v>
+        <v>-0.08105168125936049</v>
       </c>
       <c r="F73">
-        <v>0.2720322564753754</v>
+        <v>0.0412633289292672</v>
       </c>
       <c r="G73">
-        <v>-0.4529478733694037</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.01983502504764033</v>
+      </c>
+      <c r="H73">
+        <v>-0.5147961366768552</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1442925393615553</v>
+        <v>-0.1156776214040659</v>
       </c>
       <c r="C74">
-        <v>-0.02759871948726468</v>
+        <v>-0.04886935985991406</v>
       </c>
       <c r="D74">
-        <v>-0.01922708365055638</v>
+        <v>0.1114509876436341</v>
       </c>
       <c r="E74">
-        <v>-0.03552250445656845</v>
+        <v>0.004782995543423515</v>
       </c>
       <c r="F74">
-        <v>-0.06050515392163591</v>
+        <v>0.05329549205412377</v>
       </c>
       <c r="G74">
-        <v>-0.01213223069386006</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.06128751401743924</v>
+      </c>
+      <c r="H74">
+        <v>0.03591628280210737</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2356732824872906</v>
+        <v>-0.2219358511339085</v>
       </c>
       <c r="C75">
-        <v>-0.1221002997241444</v>
+        <v>-0.09536600029622902</v>
       </c>
       <c r="D75">
-        <v>-0.06657946698823373</v>
+        <v>0.1788830767512169</v>
       </c>
       <c r="E75">
-        <v>-0.08852765058901126</v>
+        <v>-0.01181609875193651</v>
       </c>
       <c r="F75">
-        <v>-0.1151132073337979</v>
+        <v>0.1301884312533521</v>
       </c>
       <c r="G75">
-        <v>-0.004470794748472378</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1236156284196005</v>
+      </c>
+      <c r="H75">
+        <v>0.1353722149557858</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.281836326482132</v>
+        <v>-0.1967158645065668</v>
       </c>
       <c r="C76">
-        <v>-0.08723788667937835</v>
+        <v>-0.08878310135964229</v>
       </c>
       <c r="D76">
-        <v>-0.1177605303150189</v>
+        <v>0.1682934191399409</v>
       </c>
       <c r="E76">
-        <v>-0.1271027144245388</v>
+        <v>0.03778882451923379</v>
       </c>
       <c r="F76">
-        <v>-0.1524261589974669</v>
+        <v>0.1254463234980882</v>
       </c>
       <c r="G76">
-        <v>-0.009436540464937375</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1229526739151667</v>
+      </c>
+      <c r="H76">
+        <v>0.1350470790418826</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1349169272923479</v>
+        <v>-0.0690327335343018</v>
       </c>
       <c r="C77">
-        <v>-0.02170170363323668</v>
+        <v>-0.00855860879072365</v>
       </c>
       <c r="D77">
-        <v>0.05668277075342638</v>
+        <v>0.0639048269227037</v>
       </c>
       <c r="E77">
-        <v>-0.05923742893075214</v>
+        <v>-0.007085510426044737</v>
       </c>
       <c r="F77">
-        <v>0.1731296424122459</v>
+        <v>-0.008678596705827357</v>
       </c>
       <c r="G77">
-        <v>0.1635481717248863</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.08571726598594279</v>
+      </c>
+      <c r="H77">
+        <v>-0.01354250591673848</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.07417003049853212</v>
+        <v>-0.03936897744611708</v>
       </c>
       <c r="C78">
-        <v>-0.03935292497968431</v>
+        <v>-0.00948991375016553</v>
       </c>
       <c r="D78">
-        <v>0.03423657094665074</v>
+        <v>0.0534390549440752</v>
       </c>
       <c r="E78">
-        <v>-0.08147318987371065</v>
+        <v>0.006797530977737775</v>
       </c>
       <c r="F78">
-        <v>0.1002218158046381</v>
+        <v>0.02717438220826408</v>
       </c>
       <c r="G78">
-        <v>0.02554795254701803</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.05391692569892106</v>
+      </c>
+      <c r="H78">
+        <v>-0.07788012645072415</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.134813426052914</v>
+        <v>-0.1344817221399599</v>
       </c>
       <c r="C80">
-        <v>0.7769362409907347</v>
+        <v>-0.03266723545372994</v>
       </c>
       <c r="D80">
-        <v>-0.2087400400320955</v>
+        <v>0.05174559495955895</v>
       </c>
       <c r="E80">
-        <v>-0.5210820150791886</v>
+        <v>0.9514210683428622</v>
       </c>
       <c r="F80">
-        <v>0.1104646541556967</v>
+        <v>-0.1758629619037185</v>
       </c>
       <c r="G80">
-        <v>-0.1505929154485771</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.1403397696754564</v>
+      </c>
+      <c r="H80">
+        <v>-0.01729688328735958</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1729036865466496</v>
+        <v>-0.1450709555135656</v>
       </c>
       <c r="C81">
-        <v>-0.08285916395571286</v>
+        <v>-0.0613263026978715</v>
       </c>
       <c r="D81">
-        <v>-0.07443758242414479</v>
+        <v>0.1071159765157099</v>
       </c>
       <c r="E81">
-        <v>-0.07136407220830429</v>
+        <v>0.01002329319654438</v>
       </c>
       <c r="F81">
-        <v>-0.127458254076066</v>
+        <v>0.08098936065478284</v>
       </c>
       <c r="G81">
-        <v>-0.03447326711421234</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.08208964203110494</v>
+      </c>
+      <c r="H81">
+        <v>0.09408095400857217</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.04117461570906658</v>
+        <v>-0.03097978628695378</v>
       </c>
       <c r="C83">
-        <v>-0.01663831489815901</v>
+        <v>-0.004859827095547111</v>
       </c>
       <c r="D83">
-        <v>0.03455011972518603</v>
+        <v>0.02098039125776219</v>
       </c>
       <c r="E83">
-        <v>-0.009546389797637255</v>
+        <v>-0.005993904147359557</v>
       </c>
       <c r="F83">
-        <v>0.04267005158444265</v>
+        <v>0.007985328204383227</v>
       </c>
       <c r="G83">
-        <v>0.05273864579217126</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.03460474004229896</v>
+      </c>
+      <c r="H83">
+        <v>-0.03951593484707194</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2548579299059528</v>
+        <v>-0.2121083577791956</v>
       </c>
       <c r="C85">
-        <v>-0.09789673497920608</v>
+        <v>-0.07928014557949424</v>
       </c>
       <c r="D85">
-        <v>-0.07864789173266065</v>
+        <v>0.1782823137746019</v>
       </c>
       <c r="E85">
-        <v>-0.09776364499836455</v>
+        <v>-0.003444074291547838</v>
       </c>
       <c r="F85">
-        <v>-0.1073429229745649</v>
+        <v>0.1152154160803029</v>
       </c>
       <c r="G85">
-        <v>0.02950988524149031</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1395593674405685</v>
+      </c>
+      <c r="H85">
+        <v>0.09853073633586622</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.006150313657290348</v>
+        <v>-0.02068113728117256</v>
       </c>
       <c r="C86">
-        <v>0.0003949189005733064</v>
+        <v>0.001035052857407466</v>
       </c>
       <c r="D86">
-        <v>0.03023607715530558</v>
+        <v>0.00835361297464355</v>
       </c>
       <c r="E86">
-        <v>-0.04496413834859833</v>
+        <v>-0.008129496410125846</v>
       </c>
       <c r="F86">
-        <v>0.07037017285232286</v>
+        <v>-0.01500770595789479</v>
       </c>
       <c r="G86">
-        <v>0.03067881692253852</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.05717328921728453</v>
+      </c>
+      <c r="H86">
+        <v>-0.08388762149667212</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03981928960267914</v>
+        <v>-0.0264172151169888</v>
       </c>
       <c r="C87">
-        <v>0.008315027674664747</v>
+        <v>-0.001168994567649757</v>
       </c>
       <c r="D87">
-        <v>0.01067762554061982</v>
+        <v>0.03528318829064078</v>
       </c>
       <c r="E87">
-        <v>-0.0275569925301302</v>
+        <v>0.009101366463770974</v>
       </c>
       <c r="F87">
-        <v>0.1208672672434804</v>
+        <v>0.0115024902027539</v>
       </c>
       <c r="G87">
-        <v>0.03736150833713012</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.07205983151076167</v>
+      </c>
+      <c r="H87">
+        <v>-0.08354451450774607</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.006326846786726857</v>
+        <v>-0.03377327088179016</v>
       </c>
       <c r="C88">
-        <v>-0.002549180064666101</v>
+        <v>0.0126508348267468</v>
       </c>
       <c r="D88">
-        <v>-0.01006431615236753</v>
+        <v>0.006480154664808574</v>
       </c>
       <c r="E88">
-        <v>-0.007642365470642063</v>
+        <v>0.007807570271089981</v>
       </c>
       <c r="F88">
-        <v>-0.004616798885754096</v>
+        <v>0.008753320535338914</v>
       </c>
       <c r="G88">
-        <v>0.05339756594545254</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.008520984078672578</v>
+      </c>
+      <c r="H88">
+        <v>-0.01241925359078333</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08974954729746515</v>
+        <v>-0.2650397273823597</v>
       </c>
       <c r="C89">
-        <v>0.09455577199211368</v>
+        <v>-0.03788042195836933</v>
       </c>
       <c r="D89">
-        <v>-0.1773189299763383</v>
+        <v>-0.3420528515715245</v>
       </c>
       <c r="E89">
-        <v>0.2493599787210113</v>
+        <v>-0.03253817219703396</v>
       </c>
       <c r="F89">
-        <v>0.1093439675527488</v>
+        <v>-0.0514515292941353</v>
       </c>
       <c r="G89">
-        <v>0.04414883106679434</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.02184605871691811</v>
+      </c>
+      <c r="H89">
+        <v>0.005328485749494857</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07893179790004402</v>
+        <v>-0.2147730442757995</v>
       </c>
       <c r="C90">
-        <v>0.1425544771150057</v>
+        <v>-0.03112260340326042</v>
       </c>
       <c r="D90">
-        <v>-0.2148618465929449</v>
+        <v>-0.3059503233956911</v>
       </c>
       <c r="E90">
-        <v>0.2487151907940787</v>
+        <v>-0.02495690772096928</v>
       </c>
       <c r="F90">
-        <v>0.05850976228437783</v>
+        <v>-0.07530354445860266</v>
       </c>
       <c r="G90">
-        <v>0.05281183106903143</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02403124613978932</v>
+      </c>
+      <c r="H90">
+        <v>0.06494818636049578</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.3169686093122523</v>
+        <v>-0.227492453287969</v>
       </c>
       <c r="C91">
-        <v>-0.1185140232387613</v>
+        <v>-0.09551913841509897</v>
       </c>
       <c r="D91">
-        <v>-0.07685373468926397</v>
+        <v>0.1677321583800388</v>
       </c>
       <c r="E91">
-        <v>-0.08558814097625461</v>
+        <v>-0.006597223942562444</v>
       </c>
       <c r="F91">
-        <v>-0.2229921250475147</v>
+        <v>0.119374047425835</v>
       </c>
       <c r="G91">
-        <v>-0.03961415101516234</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.147422766591828</v>
+      </c>
+      <c r="H91">
+        <v>0.1761980292620352</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.166595178171075</v>
+        <v>-0.259983508538371</v>
       </c>
       <c r="C92">
-        <v>0.1011501724616512</v>
+        <v>-0.09399965371987733</v>
       </c>
       <c r="D92">
-        <v>-0.3743550781832132</v>
+        <v>-0.2262461897312834</v>
       </c>
       <c r="E92">
-        <v>0.2557176064780806</v>
+        <v>-0.01027249183442489</v>
       </c>
       <c r="F92">
-        <v>-0.1302919752510635</v>
+        <v>0.0006830002111362627</v>
       </c>
       <c r="G92">
-        <v>0.4384430137331092</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.007554897522561655</v>
+      </c>
+      <c r="H92">
+        <v>0.1501091845780679</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.08564816192734606</v>
+        <v>-0.2368534341453953</v>
       </c>
       <c r="C93">
-        <v>0.1518165113055025</v>
+        <v>-0.04224585524952233</v>
       </c>
       <c r="D93">
-        <v>-0.2514463429914416</v>
+        <v>-0.3215768212881126</v>
       </c>
       <c r="E93">
-        <v>0.3604202378237673</v>
+        <v>-0.04648104753441677</v>
       </c>
       <c r="F93">
-        <v>0.01740342657244126</v>
+        <v>-0.08204957609560105</v>
       </c>
       <c r="G93">
-        <v>-0.03619280731429225</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.02168046120174432</v>
+      </c>
+      <c r="H93">
+        <v>0.01207775183576234</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.306035903323583</v>
+        <v>-0.2524343344343624</v>
       </c>
       <c r="C94">
-        <v>-0.1603172485582244</v>
+        <v>-0.0860411195850154</v>
       </c>
       <c r="D94">
-        <v>-0.1540561430140513</v>
+        <v>0.164368866933463</v>
       </c>
       <c r="E94">
-        <v>-0.1179495876538156</v>
+        <v>-0.01937627170444042</v>
       </c>
       <c r="F94">
-        <v>-0.2157811058950662</v>
+        <v>0.1674957070492355</v>
       </c>
       <c r="G94">
-        <v>-0.07611625338729697</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1327768339554849</v>
+      </c>
+      <c r="H94">
+        <v>0.2110348454683233</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.06828999515728897</v>
+        <v>-0.05099079191452806</v>
       </c>
       <c r="C95">
-        <v>-0.06470505491083839</v>
+        <v>-0.02738245915188428</v>
       </c>
       <c r="D95">
-        <v>0.08189438062694325</v>
+        <v>0.08810117030322691</v>
       </c>
       <c r="E95">
-        <v>-0.05925006941804938</v>
+        <v>-0.08101576118801336</v>
       </c>
       <c r="F95">
-        <v>0.004353146813452548</v>
+        <v>0.003921927767537919</v>
       </c>
       <c r="G95">
-        <v>0.1841172969262543</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.02639118931278952</v>
+      </c>
+      <c r="H95">
+        <v>-0.04892363321915974</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1772780363071298</v>
+        <v>-0.1814306365152196</v>
       </c>
       <c r="C98">
-        <v>-0.01103308445638499</v>
+        <v>-0.06437954342999674</v>
       </c>
       <c r="D98">
-        <v>0.03809008170692751</v>
+        <v>0.05091085364909529</v>
       </c>
       <c r="E98">
-        <v>0.1136812173561297</v>
+        <v>-0.04423850541891351</v>
       </c>
       <c r="F98">
-        <v>0.1521215788213673</v>
+        <v>0.01100181138933972</v>
       </c>
       <c r="G98">
-        <v>-0.3690790336106515</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.05757994396786133</v>
+      </c>
+      <c r="H98">
+        <v>-0.3771177829623359</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.00748919435500381</v>
+        <v>-0.01479668850124458</v>
       </c>
       <c r="C101">
-        <v>-0.02377221355729353</v>
+        <v>0.00124193725950739</v>
       </c>
       <c r="D101">
-        <v>0.01539173442875119</v>
+        <v>0.007725035137223086</v>
       </c>
       <c r="E101">
-        <v>-0.08850165573296251</v>
+        <v>0.003884821147562962</v>
       </c>
       <c r="F101">
-        <v>0.1596337581641165</v>
+        <v>0.02241907847508101</v>
       </c>
       <c r="G101">
-        <v>0.1965933056718553</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1051391863285724</v>
+      </c>
+      <c r="H101">
+        <v>0.01611078076434839</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1134328297214906</v>
+        <v>-0.102802997599067</v>
       </c>
       <c r="C102">
-        <v>-0.05671822920425836</v>
+        <v>-0.0311333701225752</v>
       </c>
       <c r="D102">
-        <v>-0.0194284704362012</v>
+        <v>0.08671698906195237</v>
       </c>
       <c r="E102">
-        <v>-0.0639389939869113</v>
+        <v>0.002981866119718555</v>
       </c>
       <c r="F102">
-        <v>-0.1067256824036664</v>
+        <v>0.06087628834512664</v>
       </c>
       <c r="G102">
-        <v>-0.002010908031770686</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.07757699468122888</v>
+      </c>
+      <c r="H102">
+        <v>0.07179026117642948</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02736360005213077</v>
+        <v>-0.01810858052445483</v>
       </c>
       <c r="C103">
-        <v>-0.01831903892796321</v>
+        <v>-0.006494593342623413</v>
       </c>
       <c r="D103">
-        <v>-0.00758274348599881</v>
+        <v>0.01803865279856697</v>
       </c>
       <c r="E103">
-        <v>-0.0227541712188272</v>
+        <v>0.01094012986751311</v>
       </c>
       <c r="F103">
-        <v>0.001412850601593697</v>
+        <v>0.01343888631973325</v>
       </c>
       <c r="G103">
-        <v>0.01015514672613536</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.001127500594378093</v>
+      </c>
+      <c r="H103">
+        <v>0.008031203490825634</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.246323306818659</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9531387598827639</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.02053568770611658</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02362189692046837</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1377707597278749</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.01880321291967277</v>
+      </c>
+      <c r="H104">
+        <v>0.04458354885133484</v>
       </c>
     </row>
   </sheetData>
